--- a/Data_frame/balancos_definitivos/BMEF3.xlsx
+++ b/Data_frame/balancos_definitivos/BMEF3.xlsx
@@ -1439,13 +1439,9 @@
           <t xml:space="preserve">Perdas pela Não Recuperabilidade de Ativos </t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
+      <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1649,9 +1645,7 @@
           <t>Part. de Acionistas Não Controladores</t>
         </is>
       </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
         <v>363</v>
